--- a/DateBase/orders/Nha Thu_2025-8-9.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +607,595 @@
       <c r="A21" t="str">
         <v>4</v>
       </c>
+      <c r="C21" t="str">
+        <v>685_百合树_lily tree_undefined_1stem</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>699_火焰兰果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>122_绣球拇指薄荷_Hydrangea_Hydrangea L._1stem</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>112_绣球青花瓷_Hydrangea Blue&amp;White Porcelain_Hydrangea L._1stem</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F39" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F40" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>3</v>
+      </c>
+      <c r="C41" t="str">
+        <v>136_爱慕_adore_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>247_苏芬_Sofine_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>623_粉太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>626_多丁黄言_undefined_undefined_undefinedundefined</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>4</v>
+      </c>
+      <c r="C52" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F59" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>78_玉镜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>5</v>
+      </c>
+      <c r="C64" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>6</v>
+      </c>
+      <c r="C69" t="str">
+        <v>685_百合树_lily tree_undefined_1stem</v>
+      </c>
+      <c r="F69" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>441_蓝星球_Echinops_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>559_粉廖_Polygonum_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F72" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>15_深紫洋桔梗_Dark Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F73" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>7</v>
+      </c>
+      <c r="C75" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>581_腊梅橙_wax orange_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>582_腊梅蓝_wax blue_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v/>
+      </c>
+      <c r="C80" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="C81" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="C82" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>8</v>
+      </c>
+      <c r="C85" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L89"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -668,7 +1253,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020104.5151010127.56101285151512815100</v>
+        <v>020104.5151010127.5610128515151281510103151099107715525151010515152015107865555555105551013101510510555510102010106510555555101055151010105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-8-9.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-9.xlsx
@@ -1255,6 +1255,9 @@
       <c r="G2" t="str">
         <v>020104.5151010127.5610128515151281510103151099107715525151010515152015107865555555105551013101510510555510102010106510555555101055151010105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
